--- a/development/features/nipa-consistent-FIM/results/11-2020/data/xx.xlsx
+++ b/development/features/nipa-consistent-FIM/results/11-2020/data/xx.xlsx
@@ -988,7 +988,7 @@
         <v>4.7</v>
       </c>
       <c r="AV2">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="AW2">
         <v>38.3</v>
@@ -1140,7 +1140,7 @@
         <v>4.8</v>
       </c>
       <c r="AV3">
-        <v>3.544</v>
+        <v>3544</v>
       </c>
       <c r="AW3">
         <v>38.83333333333334</v>
@@ -1292,7 +1292,7 @@
         <v>4.7</v>
       </c>
       <c r="AV4">
-        <v>4.164</v>
+        <v>4164</v>
       </c>
       <c r="AW4">
         <v>39.23333333333334</v>
@@ -1444,7 +1444,7 @@
         <v>4.8</v>
       </c>
       <c r="AV5">
-        <v>4.936</v>
+        <v>4936</v>
       </c>
       <c r="AW5">
         <v>39.8</v>
@@ -1596,7 +1596,7 @@
         <v>4.8</v>
       </c>
       <c r="AV6">
-        <v>5.224</v>
+        <v>5224</v>
       </c>
       <c r="AW6">
         <v>40.16666666666667</v>
@@ -1748,7 +1748,7 @@
         <v>4.8</v>
       </c>
       <c r="AV7">
-        <v>5.7</v>
+        <v>5700</v>
       </c>
       <c r="AW7">
         <v>40.53333333333334</v>
@@ -1900,7 +1900,7 @@
         <v>4.5</v>
       </c>
       <c r="AV8">
-        <v>5.684</v>
+        <v>5684</v>
       </c>
       <c r="AW8">
         <v>40.96666666666667</v>
@@ -2052,7 +2052,7 @@
         <v>4.6</v>
       </c>
       <c r="AV9">
-        <v>5.72</v>
+        <v>5720</v>
       </c>
       <c r="AW9">
         <v>41.23333333333334</v>
@@ -2204,7 +2204,7 @@
         <v>6.1</v>
       </c>
       <c r="AV10">
-        <v>5.932</v>
+        <v>5932</v>
       </c>
       <c r="AW10">
         <v>41.6</v>
@@ -2356,7 +2356,7 @@
         <v>6.2</v>
       </c>
       <c r="AV11">
-        <v>6.192</v>
+        <v>6192</v>
       </c>
       <c r="AW11">
         <v>41.8</v>
@@ -2508,7 +2508,7 @@
         <v>7.2</v>
       </c>
       <c r="AV12">
-        <v>5.184</v>
+        <v>5184</v>
       </c>
       <c r="AW12">
         <v>42.2</v>
@@ -2660,7 +2660,7 @@
         <v>7.1</v>
       </c>
       <c r="AV13">
-        <v>4.508</v>
+        <v>4508</v>
       </c>
       <c r="AW13">
         <v>42.63333333333333</v>
@@ -2812,7 +2812,7 @@
         <v>5.9</v>
       </c>
       <c r="AV14">
-        <v>4.188</v>
+        <v>4188</v>
       </c>
       <c r="AW14">
         <v>43.26666666666667</v>
@@ -2964,7 +2964,7 @@
         <v>5.7</v>
       </c>
       <c r="AV15">
-        <v>4.1</v>
+        <v>4100</v>
       </c>
       <c r="AW15">
         <v>44.16666666666666</v>
@@ -3116,7 +3116,7 @@
         <v>4.7</v>
       </c>
       <c r="AV16">
-        <v>4.112</v>
+        <v>4112</v>
       </c>
       <c r="AW16">
         <v>45.06666666666666</v>
@@ -3268,7 +3268,7 @@
         <v>4.6</v>
       </c>
       <c r="AV17">
-        <v>4.352</v>
+        <v>4352</v>
       </c>
       <c r="AW17">
         <v>46.16666666666666</v>
@@ -3420,7 +3420,7 @@
         <v>3.6</v>
       </c>
       <c r="AV18">
-        <v>5.436</v>
+        <v>5436</v>
       </c>
       <c r="AW18">
         <v>47.56666666666666</v>
@@ -3572,7 +3572,7 @@
         <v>2.9</v>
       </c>
       <c r="AV19">
-        <v>6.296</v>
+        <v>6296</v>
       </c>
       <c r="AW19">
         <v>48.76666666666667</v>
@@ -3724,7 +3724,7 @@
         <v>3.2</v>
       </c>
       <c r="AV20">
-        <v>6.428</v>
+        <v>6428</v>
       </c>
       <c r="AW20">
         <v>50.23333333333334</v>
@@ -3876,7 +3876,7 @@
         <v>3.6</v>
       </c>
       <c r="AV21">
-        <v>8.119999999999999</v>
+        <v>8120</v>
       </c>
       <c r="AW21">
         <v>51.76666666666667</v>
@@ -4028,7 +4028,7 @@
         <v>4.2</v>
       </c>
       <c r="AV22">
-        <v>13.26</v>
+        <v>13260</v>
       </c>
       <c r="AW22">
         <v>52.86666666666667</v>
@@ -4180,7 +4180,7 @@
         <v>4.3</v>
       </c>
       <c r="AV23">
-        <v>18.048</v>
+        <v>18048</v>
       </c>
       <c r="AW23">
         <v>53.5</v>
@@ -4332,7 +4332,7 @@
         <v>4.6</v>
       </c>
       <c r="AV24">
-        <v>17.984</v>
+        <v>17984</v>
       </c>
       <c r="AW24">
         <v>54.56666666666666</v>
@@ -4484,7 +4484,7 @@
         <v>4.9</v>
       </c>
       <c r="AV25">
-        <v>16.9</v>
+        <v>16900</v>
       </c>
       <c r="AW25">
         <v>55.56666666666667</v>
@@ -4636,7 +4636,7 @@
         <v>5.1</v>
       </c>
       <c r="AV26">
-        <v>15.616</v>
+        <v>15616</v>
       </c>
       <c r="AW26">
         <v>56.23333333333333</v>
@@ -4788,7 +4788,7 @@
         <v>4.8</v>
       </c>
       <c r="AV27">
-        <v>14.396</v>
+        <v>14396</v>
       </c>
       <c r="AW27">
         <v>56.73333333333333</v>
@@ -4940,7 +4940,7 @@
         <v>5.1</v>
       </c>
       <c r="AV28">
-        <v>13.58</v>
+        <v>13580</v>
       </c>
       <c r="AW28">
         <v>57.6</v>
@@ -5092,7 +5092,7 @@
         <v>5.5</v>
       </c>
       <c r="AV29">
-        <v>13.528</v>
+        <v>13528</v>
       </c>
       <c r="AW29">
         <v>58.43333333333334</v>
@@ -5244,7 +5244,7 @@
         <v>5.8</v>
       </c>
       <c r="AV30">
-        <v>13.396</v>
+        <v>13396</v>
       </c>
       <c r="AW30">
         <v>59.53333333333333</v>
@@ -5396,7 +5396,7 @@
         <v>5.9</v>
       </c>
       <c r="AV31">
-        <v>11.776</v>
+        <v>11776</v>
       </c>
       <c r="AW31">
         <v>60.6</v>
@@ -5548,7 +5548,7 @@
         <v>6.4</v>
       </c>
       <c r="AV32">
-        <v>10.436</v>
+        <v>10436</v>
       </c>
       <c r="AW32">
         <v>61.43333333333334</v>
@@ -5700,7 +5700,7 @@
         <v>10.3</v>
       </c>
       <c r="AV33">
-        <v>10.524</v>
+        <v>10524</v>
       </c>
       <c r="AW33">
         <v>62.26666666666666</v>
@@ -5852,7 +5852,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AV34">
-        <v>9.58</v>
+        <v>9580</v>
       </c>
       <c r="AW34">
         <v>63.36666666666667</v>
@@ -6004,7 +6004,7 @@
         <v>8.4</v>
       </c>
       <c r="AV35">
-        <v>8.584</v>
+        <v>8584</v>
       </c>
       <c r="AW35">
         <v>64.76666666666667</v>
@@ -6156,7 +6156,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AV36">
-        <v>8.375999999999999</v>
+        <v>8376</v>
       </c>
       <c r="AW36">
         <v>66.23333333333333</v>
@@ -6308,7 +6308,7 @@
         <v>10.4</v>
       </c>
       <c r="AV37">
-        <v>7.908</v>
+        <v>7908</v>
       </c>
       <c r="AW37">
         <v>67.83333333333333</v>
@@ -6460,7 +6460,7 @@
         <v>8.4</v>
       </c>
       <c r="AV38">
-        <v>8.788</v>
+        <v>8788</v>
       </c>
       <c r="AW38">
         <v>69.56666666666666</v>
@@ -6612,7 +6612,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV39">
-        <v>8.628</v>
+        <v>8628</v>
       </c>
       <c r="AW39">
         <v>71.89999999999999</v>
@@ -6764,7 +6764,7 @@
         <v>8.1</v>
       </c>
       <c r="AV40">
-        <v>9.052</v>
+        <v>9052</v>
       </c>
       <c r="AW40">
         <v>74.23333333333333</v>
@@ -6916,7 +6916,7 @@
         <v>8.9</v>
       </c>
       <c r="AV41">
-        <v>9.932</v>
+        <v>9932</v>
       </c>
       <c r="AW41">
         <v>76.5</v>
@@ -7068,7 +7068,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV42">
-        <v>11.304</v>
+        <v>11304</v>
       </c>
       <c r="AW42">
         <v>79.5</v>
@@ -7220,7 +7220,7 @@
         <v>9.6</v>
       </c>
       <c r="AV43">
-        <v>15.04</v>
+        <v>15040</v>
       </c>
       <c r="AW43">
         <v>82.2</v>
@@ -7372,7 +7372,7 @@
         <v>10.1</v>
       </c>
       <c r="AV44">
-        <v>18.064</v>
+        <v>18064</v>
       </c>
       <c r="AW44">
         <v>83.73333333333333</v>
@@ -7524,7 +7524,7 @@
         <v>10.3</v>
       </c>
       <c r="AV45">
-        <v>16.916</v>
+        <v>16916</v>
       </c>
       <c r="AW45">
         <v>86.16666666666667</v>
@@ -7676,7 +7676,7 @@
         <v>10.6</v>
       </c>
       <c r="AV46">
-        <v>15.56</v>
+        <v>15560</v>
       </c>
       <c r="AW46">
         <v>88.46666666666665</v>
@@ -7828,7 +7828,7 @@
         <v>10.7</v>
       </c>
       <c r="AV47">
-        <v>14.648</v>
+        <v>14648</v>
       </c>
       <c r="AW47">
         <v>90.23333333333335</v>
@@ -7980,7 +7980,7 @@
         <v>11.1</v>
       </c>
       <c r="AV48">
-        <v>14.212</v>
+        <v>14212</v>
       </c>
       <c r="AW48">
         <v>92.73333333333333</v>
@@ -8132,7 +8132,7 @@
         <v>13.5</v>
       </c>
       <c r="AV49">
-        <v>15.928</v>
+        <v>15928</v>
       </c>
       <c r="AW49">
         <v>94.16666666666667</v>
@@ -8284,7 +8284,7 @@
         <v>14</v>
       </c>
       <c r="AV50">
-        <v>18.472</v>
+        <v>18472</v>
       </c>
       <c r="AW50">
         <v>94.96666666666665</v>
@@ -8436,7 +8436,7 @@
         <v>13.6</v>
       </c>
       <c r="AV51">
-        <v>23.188</v>
+        <v>23188</v>
       </c>
       <c r="AW51">
         <v>96.23333333333333</v>
@@ -8588,7 +8588,7 @@
         <v>13</v>
       </c>
       <c r="AV52">
-        <v>25.12</v>
+        <v>25120</v>
       </c>
       <c r="AW52">
         <v>98</v>
@@ -8740,7 +8740,7 @@
         <v>19.4</v>
       </c>
       <c r="AV53">
-        <v>26.724</v>
+        <v>26724</v>
       </c>
       <c r="AW53">
         <v>98.33333333333333</v>
@@ -8892,7 +8892,7 @@
         <v>19.9</v>
       </c>
       <c r="AV54">
-        <v>24.276</v>
+        <v>24276</v>
       </c>
       <c r="AW54">
         <v>98.3</v>
@@ -9044,7 +9044,7 @@
         <v>21.6</v>
       </c>
       <c r="AV55">
-        <v>23.528</v>
+        <v>23528</v>
       </c>
       <c r="AW55">
         <v>99.43333333333334</v>
@@ -9196,7 +9196,7 @@
         <v>22.2</v>
       </c>
       <c r="AV56">
-        <v>17.744</v>
+        <v>17744</v>
       </c>
       <c r="AW56">
         <v>100.4</v>
@@ -9348,7 +9348,7 @@
         <v>21.5</v>
       </c>
       <c r="AV57">
-        <v>14.992</v>
+        <v>14992</v>
       </c>
       <c r="AW57">
         <v>101.1666666666667</v>
@@ -9500,7 +9500,7 @@
         <v>21.2</v>
       </c>
       <c r="AV58">
-        <v>13.404</v>
+        <v>13404</v>
       </c>
       <c r="AW58">
         <v>101.9333333333333</v>
@@ -9652,7 +9652,7 @@
         <v>21</v>
       </c>
       <c r="AV59">
-        <v>12.936</v>
+        <v>12936</v>
       </c>
       <c r="AW59">
         <v>102.4666666666667</v>
@@ -9804,7 +9804,7 @@
         <v>20.9</v>
       </c>
       <c r="AV60">
-        <v>12.784</v>
+        <v>12784</v>
       </c>
       <c r="AW60">
         <v>103.9333333333333</v>
@@ -9956,7 +9956,7 @@
         <v>21.2</v>
       </c>
       <c r="AV61">
-        <v>13.536</v>
+        <v>13536</v>
       </c>
       <c r="AW61">
         <v>104.8</v>
@@ -10108,7 +10108,7 @@
         <v>21.1</v>
       </c>
       <c r="AV62">
-        <v>14.404</v>
+        <v>14404</v>
       </c>
       <c r="AW62">
         <v>105.6666666666667</v>
@@ -10260,7 +10260,7 @@
         <v>21</v>
       </c>
       <c r="AV63">
-        <v>14.44</v>
+        <v>14440</v>
       </c>
       <c r="AW63">
         <v>106.6333333333333</v>
@@ -10412,7 +10412,7 @@
         <v>21.3</v>
       </c>
       <c r="AV64">
-        <v>14.516</v>
+        <v>14516</v>
       </c>
       <c r="AW64">
         <v>107.1333333333333</v>
@@ -10564,7 +10564,7 @@
         <v>22</v>
       </c>
       <c r="AV65">
-        <v>15.088</v>
+        <v>15088</v>
       </c>
       <c r="AW65">
         <v>108.2</v>
@@ -10716,7 +10716,7 @@
         <v>23.1</v>
       </c>
       <c r="AV66">
-        <v>15.12</v>
+        <v>15120</v>
       </c>
       <c r="AW66">
         <v>108.6666666666667</v>
@@ -10868,7 +10868,7 @@
         <v>24.2</v>
       </c>
       <c r="AV67">
-        <v>15.848</v>
+        <v>15848</v>
       </c>
       <c r="AW67">
         <v>107.9333333333333</v>
@@ -11020,7 +11020,7 @@
         <v>25.5</v>
       </c>
       <c r="AV68">
-        <v>16.448</v>
+        <v>16448</v>
       </c>
       <c r="AW68">
         <v>108.5</v>
@@ -11172,7 +11172,7 @@
         <v>26.8</v>
       </c>
       <c r="AV69">
-        <v>16.408</v>
+        <v>16408</v>
       </c>
       <c r="AW69">
         <v>109.2</v>
@@ -11324,7 +11324,7 @@
         <v>28.3</v>
       </c>
       <c r="AV70">
-        <v>14.996</v>
+        <v>14996</v>
       </c>
       <c r="AW70">
         <v>110.6666666666667</v>
@@ -11476,7 +11476,7 @@
         <v>30.4</v>
       </c>
       <c r="AV71">
-        <v>14.58</v>
+        <v>14580</v>
       </c>
       <c r="AW71">
         <v>111.9666666666667</v>
@@ -11628,7 +11628,7 @@
         <v>31.3</v>
       </c>
       <c r="AV72">
-        <v>13.992</v>
+        <v>13992</v>
       </c>
       <c r="AW72">
         <v>113.1666666666667</v>
@@ -11780,7 +11780,7 @@
         <v>31.1</v>
       </c>
       <c r="AV73">
-        <v>13.108</v>
+        <v>13108</v>
       </c>
       <c r="AW73">
         <v>114.1666666666667</v>
@@ -11932,7 +11932,7 @@
         <v>30.4</v>
       </c>
       <c r="AV74">
-        <v>13.496</v>
+        <v>13496</v>
       </c>
       <c r="AW74">
         <v>114.9333333333333</v>
@@ -12084,7 +12084,7 @@
         <v>29.8</v>
       </c>
       <c r="AV75">
-        <v>12.736</v>
+        <v>12736</v>
       </c>
       <c r="AW75">
         <v>116.2</v>
@@ -12236,7 +12236,7 @@
         <v>29.2</v>
       </c>
       <c r="AV76">
-        <v>12.776</v>
+        <v>12776</v>
       </c>
       <c r="AW76">
         <v>117.7333333333333</v>
@@ -12388,7 +12388,7 @@
         <v>28.6</v>
       </c>
       <c r="AV77">
-        <v>12.652</v>
+        <v>12652</v>
       </c>
       <c r="AW77">
         <v>118.9333333333333</v>
@@ -12540,7 +12540,7 @@
         <v>28</v>
       </c>
       <c r="AV78">
-        <v>13.16</v>
+        <v>13160</v>
       </c>
       <c r="AW78">
         <v>120.3666666666667</v>
@@ -12692,7 +12692,7 @@
         <v>27.4</v>
       </c>
       <c r="AV79">
-        <v>13.316</v>
+        <v>13316</v>
       </c>
       <c r="AW79">
         <v>122.4</v>
@@ -12844,7 +12844,7 @@
         <v>27.1</v>
       </c>
       <c r="AV80">
-        <v>14.22</v>
+        <v>14220</v>
       </c>
       <c r="AW80">
         <v>123.2666666666667</v>
@@ -12996,7 +12996,7 @@
         <v>27.3</v>
       </c>
       <c r="AV81">
-        <v>15.38</v>
+        <v>15380</v>
       </c>
       <c r="AW81">
         <v>124.4</v>
@@ -13148,7 +13148,7 @@
         <v>27.1</v>
       </c>
       <c r="AV82">
-        <v>16.048</v>
+        <v>16048</v>
       </c>
       <c r="AW82">
         <v>126.5666666666667</v>
@@ -13300,7 +13300,7 @@
         <v>27</v>
       </c>
       <c r="AV83">
-        <v>16.632</v>
+        <v>16632</v>
       </c>
       <c r="AW83">
         <v>127.6666666666667</v>
@@ -13452,7 +13452,7 @@
         <v>26.9</v>
       </c>
       <c r="AV84">
-        <v>17.728</v>
+        <v>17728</v>
       </c>
       <c r="AW84">
         <v>129.8666666666667</v>
@@ -13604,7 +13604,7 @@
         <v>27</v>
       </c>
       <c r="AV85">
-        <v>20.448</v>
+        <v>20448</v>
       </c>
       <c r="AW85">
         <v>132.1</v>
@@ -13756,7 +13756,7 @@
         <v>27.1</v>
       </c>
       <c r="AV86">
-        <v>23.824</v>
+        <v>23824</v>
       </c>
       <c r="AW86">
         <v>132.9333333333333</v>
@@ -13908,7 +13908,7 @@
         <v>27.2</v>
       </c>
       <c r="AV87">
-        <v>26.968</v>
+        <v>26968</v>
       </c>
       <c r="AW87">
         <v>133.7333333333334</v>
@@ -14060,7 +14060,7 @@
         <v>27.5</v>
       </c>
       <c r="AV88">
-        <v>25.364</v>
+        <v>25364</v>
       </c>
       <c r="AW88">
         <v>134.6333333333333</v>
@@ -14212,7 +14212,7 @@
         <v>28.1</v>
       </c>
       <c r="AV89">
-        <v>25.508</v>
+        <v>25508</v>
       </c>
       <c r="AW89">
         <v>135.7333333333333</v>
@@ -14364,7 +14364,7 @@
         <v>28.6</v>
       </c>
       <c r="AV90">
-        <v>25.104</v>
+        <v>25104</v>
       </c>
       <c r="AW90">
         <v>136.5333333333333</v>
@@ -14516,7 +14516,7 @@
         <v>29.2</v>
       </c>
       <c r="AV91">
-        <v>25.416</v>
+        <v>25416</v>
       </c>
       <c r="AW91">
         <v>137.5666666666667</v>
@@ -14668,7 +14668,7 @@
         <v>30.4</v>
       </c>
       <c r="AV92">
-        <v>25.36</v>
+        <v>25360</v>
       </c>
       <c r="AW92">
         <v>138.7</v>
@@ -14820,7 +14820,7 @@
         <v>32.2</v>
       </c>
       <c r="AV93">
-        <v>23.42</v>
+        <v>23420</v>
       </c>
       <c r="AW93">
         <v>139.8</v>
@@ -14978,7 +14978,7 @@
         <v>35.5</v>
       </c>
       <c r="AV94">
-        <v>20.628</v>
+        <v>20628</v>
       </c>
       <c r="AW94">
         <v>140.7666666666667</v>
@@ -15136,7 +15136,7 @@
         <v>37.6</v>
       </c>
       <c r="AV95">
-        <v>21.808</v>
+        <v>21808</v>
       </c>
       <c r="AW95">
         <v>141.7333333333334</v>
@@ -15294,7 +15294,7 @@
         <v>37.7</v>
       </c>
       <c r="AV96">
-        <v>21.78</v>
+        <v>21780</v>
       </c>
       <c r="AW96">
         <v>142.3333333333333</v>
@@ -15452,7 +15452,7 @@
         <v>36</v>
       </c>
       <c r="AV97">
-        <v>22.14</v>
+        <v>22140</v>
       </c>
       <c r="AW97">
         <v>143.4333333333333</v>
@@ -15610,7 +15610,7 @@
         <v>33.6</v>
       </c>
       <c r="AV98">
-        <v>21.808</v>
+        <v>21808</v>
       </c>
       <c r="AW98">
         <v>144.0333333333333</v>
@@ -15768,7 +15768,7 @@
         <v>32.4</v>
       </c>
       <c r="AV99">
-        <v>22.096</v>
+        <v>22096</v>
       </c>
       <c r="AW99">
         <v>144.8666666666667</v>
@@ -15926,7 +15926,7 @@
         <v>31.9</v>
       </c>
       <c r="AV100">
-        <v>21.264</v>
+        <v>21264</v>
       </c>
       <c r="AW100">
         <v>146.4</v>
@@ -16084,7 +16084,7 @@
         <v>32.2</v>
       </c>
       <c r="AV101">
-        <v>20.56</v>
+        <v>20560</v>
       </c>
       <c r="AW101">
         <v>147.2666666666667</v>
@@ -16242,7 +16242,7 @@
         <v>34</v>
       </c>
       <c r="AV102">
-        <v>20.144</v>
+        <v>20144</v>
       </c>
       <c r="AW102">
         <v>148.3333333333333</v>
@@ -16400,7 +16400,7 @@
         <v>34.6</v>
       </c>
       <c r="AV103">
-        <v>20.856</v>
+        <v>20856</v>
       </c>
       <c r="AW103">
         <v>149.5</v>
@@ -16558,7 +16558,7 @@
         <v>35.1</v>
       </c>
       <c r="AV104">
-        <v>21.284</v>
+        <v>21284</v>
       </c>
       <c r="AW104">
         <v>150.1666666666667</v>
@@ -16716,7 +16716,7 @@
         <v>35.5</v>
       </c>
       <c r="AV105">
-        <v>21.768</v>
+        <v>21768</v>
       </c>
       <c r="AW105">
         <v>151</v>
@@ -16874,7 +16874,7 @@
         <v>35.5</v>
       </c>
       <c r="AV106">
-        <v>22.276</v>
+        <v>22276</v>
       </c>
       <c r="AW106">
         <v>152.4</v>
@@ -17032,7 +17032,7 @@
         <v>35.4</v>
       </c>
       <c r="AV107">
-        <v>22.048</v>
+        <v>22048</v>
       </c>
       <c r="AW107">
         <v>153.7333333333334</v>
@@ -17190,7 +17190,7 @@
         <v>35.2</v>
       </c>
       <c r="AV108">
-        <v>21.004</v>
+        <v>21004</v>
       </c>
       <c r="AW108">
         <v>154.5666666666667</v>
@@ -17348,7 +17348,7 @@
         <v>34.8</v>
       </c>
       <c r="AV109">
-        <v>21.088</v>
+        <v>21088</v>
       </c>
       <c r="AW109">
         <v>155.8666666666667</v>
@@ -17506,7 +17506,7 @@
         <v>34.4</v>
       </c>
       <c r="AV110">
-        <v>20.308</v>
+        <v>20308</v>
       </c>
       <c r="AW110">
         <v>156.8</v>
@@ -17664,7 +17664,7 @@
         <v>33.6</v>
       </c>
       <c r="AV111">
-        <v>19.792</v>
+        <v>19792</v>
       </c>
       <c r="AW111">
         <v>157.1</v>
@@ -17822,7 +17822,7 @@
         <v>33.4</v>
       </c>
       <c r="AV112">
-        <v>19.064</v>
+        <v>19064</v>
       </c>
       <c r="AW112">
         <v>157.8</v>
@@ -17980,7 +17980,7 @@
         <v>33.8</v>
       </c>
       <c r="AV113">
-        <v>18.852</v>
+        <v>18852</v>
       </c>
       <c r="AW113">
         <v>158.5333333333333</v>
@@ -18138,7 +18138,7 @@
         <v>33.8</v>
       </c>
       <c r="AV114">
-        <v>18.852</v>
+        <v>18852</v>
       </c>
       <c r="AW114">
         <v>158.7333333333333</v>
@@ -18296,7 +18296,7 @@
         <v>35</v>
       </c>
       <c r="AV115">
-        <v>18.8</v>
+        <v>18800</v>
       </c>
       <c r="AW115">
         <v>159.2</v>
@@ -18454,7 +18454,7 @@
         <v>36.8</v>
       </c>
       <c r="AV116">
-        <v>19.78</v>
+        <v>19780</v>
       </c>
       <c r="AW116">
         <v>159.9666666666667</v>
@@ -18612,7 +18612,7 @@
         <v>39.9</v>
       </c>
       <c r="AV117">
-        <v>19.312</v>
+        <v>19312</v>
       </c>
       <c r="AW117">
         <v>160.7666666666667</v>
@@ -18770,7 +18770,7 @@
         <v>42.4</v>
       </c>
       <c r="AV118">
-        <v>20.304</v>
+        <v>20304</v>
       </c>
       <c r="AW118">
         <v>161.3666666666667</v>
@@ -18928,7 +18928,7 @@
         <v>45</v>
       </c>
       <c r="AV119">
-        <v>20.404</v>
+        <v>20404</v>
       </c>
       <c r="AW119">
         <v>162.5333333333333</v>
@@ -19086,7 +19086,7 @@
         <v>46.4</v>
       </c>
       <c r="AV120">
-        <v>19.852</v>
+        <v>19852</v>
       </c>
       <c r="AW120">
         <v>163.9</v>
@@ -19244,7 +19244,7 @@
         <v>46.9</v>
       </c>
       <c r="AV121">
-        <v>19.584</v>
+        <v>19584</v>
       </c>
       <c r="AW121">
         <v>165.2</v>
@@ -19402,7 +19402,7 @@
         <v>45.1</v>
       </c>
       <c r="AV122">
-        <v>20.072</v>
+        <v>20072</v>
       </c>
       <c r="AW122">
         <v>166.8333333333333</v>
@@ -19560,7 +19560,7 @@
         <v>45.5</v>
       </c>
       <c r="AV123">
-        <v>19.528</v>
+        <v>19528</v>
       </c>
       <c r="AW123">
         <v>168.1666666666667</v>
@@ -19718,7 +19718,7 @@
         <v>45.8</v>
       </c>
       <c r="AV124">
-        <v>20.092</v>
+        <v>20092</v>
       </c>
       <c r="AW124">
         <v>169.7</v>
@@ -19876,7 +19876,7 @@
         <v>47</v>
       </c>
       <c r="AV125">
-        <v>21.32</v>
+        <v>21320</v>
       </c>
       <c r="AW125">
         <v>170.8333333333333</v>
@@ -20034,7 +20034,7 @@
         <v>55.2</v>
       </c>
       <c r="AV126">
-        <v>24.876</v>
+        <v>24876</v>
       </c>
       <c r="AW126">
         <v>172.4333333333333</v>
@@ -20192,7 +20192,7 @@
         <v>62</v>
       </c>
       <c r="AV127">
-        <v>27.868</v>
+        <v>27868</v>
       </c>
       <c r="AW127">
         <v>173.7333333333334</v>
@@ -20350,7 +20350,7 @@
         <v>71.2</v>
       </c>
       <c r="AV128">
-        <v>32.624</v>
+        <v>32624</v>
       </c>
       <c r="AW128">
         <v>174.1</v>
@@ -20508,7 +20508,7 @@
         <v>46.4</v>
       </c>
       <c r="AV129">
-        <v>40.108</v>
+        <v>40108</v>
       </c>
       <c r="AW129">
         <v>173.6666666666667</v>
@@ -20666,7 +20666,7 @@
         <v>42.6</v>
       </c>
       <c r="AV130">
-        <v>41.187</v>
+        <v>41187</v>
       </c>
       <c r="AW130">
         <v>174.0333333333333</v>
@@ -20824,7 +20824,7 @@
         <v>39.8</v>
       </c>
       <c r="AV131">
-        <v>43.142</v>
+        <v>43142</v>
       </c>
       <c r="AW131">
         <v>175.5333333333333</v>
@@ -20982,7 +20982,7 @@
         <v>41.3</v>
       </c>
       <c r="AV132">
-        <v>42.093</v>
+        <v>42093</v>
       </c>
       <c r="AW132">
         <v>176.5</v>
@@ -21140,7 +21140,7 @@
         <v>41.9</v>
       </c>
       <c r="AV133">
-        <v>41.942</v>
+        <v>41942</v>
       </c>
       <c r="AW133">
         <v>177.4666666666667</v>
@@ -21298,7 +21298,7 @@
         <v>47.1</v>
       </c>
       <c r="AV134">
-        <v>41.355</v>
+        <v>41355</v>
       </c>
       <c r="AW134">
         <v>179.4666666666667</v>
@@ -21456,7 +21456,7 @@
         <v>57.1</v>
       </c>
       <c r="AV135">
-        <v>43.223</v>
+        <v>43223</v>
       </c>
       <c r="AW135">
         <v>178.9333333333333</v>
@@ -21614,7 +21614,7 @@
         <v>45.9</v>
       </c>
       <c r="AV136">
-        <v>41.974</v>
+        <v>41974</v>
       </c>
       <c r="AW136">
         <v>180.2</v>
@@ -21772,7 +21772,7 @@
         <v>46</v>
       </c>
       <c r="AV137">
-        <v>39.385</v>
+        <v>39385</v>
       </c>
       <c r="AW137">
         <v>180.7333333333334</v>
@@ -21930,7 +21930,7 @@
         <v>44.2</v>
       </c>
       <c r="AV138">
-        <v>36.288</v>
+        <v>36288</v>
       </c>
       <c r="AW138">
         <v>182.3333333333333</v>
@@ -22088,7 +22088,7 @@
         <v>43.7</v>
       </c>
       <c r="AV139">
-        <v>34.859</v>
+        <v>34859</v>
       </c>
       <c r="AW139">
         <v>183.6666666666667</v>
@@ -22246,7 +22246,7 @@
         <v>45.4</v>
       </c>
       <c r="AV140">
-        <v>33.83</v>
+        <v>33830</v>
       </c>
       <c r="AW140">
         <v>184.8666666666667</v>
@@ -22404,7 +22404,7 @@
         <v>52.3</v>
       </c>
       <c r="AV141">
-        <v>32.126</v>
+        <v>32126</v>
       </c>
       <c r="AW141">
         <v>187.0666666666667</v>
@@ -22562,7 +22562,7 @@
         <v>56.7</v>
       </c>
       <c r="AV142">
-        <v>31.363</v>
+        <v>31363</v>
       </c>
       <c r="AW142">
         <v>187.9333333333333</v>
@@ -22720,7 +22720,7 @@
         <v>60.7</v>
       </c>
       <c r="AV143">
-        <v>30.188</v>
+        <v>30188</v>
       </c>
       <c r="AW143">
         <v>189.2333333333334</v>
@@ -22878,7 +22878,7 @@
         <v>62</v>
       </c>
       <c r="AV144">
-        <v>30.774</v>
+        <v>30774</v>
       </c>
       <c r="AW144">
         <v>192.5666666666667</v>
@@ -23036,7 +23036,7 @@
         <v>64.2</v>
       </c>
       <c r="AV145">
-        <v>31.798</v>
+        <v>31798</v>
       </c>
       <c r="AW145">
         <v>194.2</v>
@@ -23194,7 +23194,7 @@
         <v>55.7</v>
       </c>
       <c r="AV146">
-        <v>29.568</v>
+        <v>29568</v>
       </c>
       <c r="AW146">
         <v>195.1333333333334</v>
@@ -23352,7 +23352,7 @@
         <v>51.5</v>
       </c>
       <c r="AV147">
-        <v>28.723</v>
+        <v>28723</v>
       </c>
       <c r="AW147">
         <v>196.9333333333333</v>
@@ -23510,7 +23510,7 @@
         <v>49.9</v>
       </c>
       <c r="AV148">
-        <v>29.815</v>
+        <v>29815</v>
       </c>
       <c r="AW148">
         <v>198.8</v>
@@ -23668,7 +23668,7 @@
         <v>48.7</v>
       </c>
       <c r="AV149">
-        <v>30.381</v>
+        <v>30381</v>
       </c>
       <c r="AW149">
         <v>197.5666666666666</v>
@@ -23826,7 +23826,7 @@
         <v>49.5</v>
       </c>
       <c r="AV150">
-        <v>31.562</v>
+        <v>31562</v>
       </c>
       <c r="AW150">
         <v>199.553</v>
@@ -23984,7 +23984,7 @@
         <v>58.2</v>
       </c>
       <c r="AV151">
-        <v>31.128</v>
+        <v>31128</v>
       </c>
       <c r="AW151">
         <v>202.077</v>
@@ -24142,7 +24142,7 @@
         <v>55.9</v>
       </c>
       <c r="AV152">
-        <v>32.144</v>
+        <v>32144</v>
       </c>
       <c r="AW152">
         <v>203.37</v>
@@ -24300,7 +24300,7 @@
         <v>54.7</v>
       </c>
       <c r="AV153">
-        <v>33.303</v>
+        <v>33303</v>
       </c>
       <c r="AW153">
         <v>206.0856666666666</v>
@@ -24458,7 +24458,7 @@
         <v>51.9</v>
       </c>
       <c r="AV154">
-        <v>35.577</v>
+        <v>35577</v>
       </c>
       <c r="AW154">
         <v>208.516</v>
@@ -24616,7 +24616,7 @@
         <v>51.7</v>
       </c>
       <c r="AV155">
-        <v>37.546</v>
+        <v>37546</v>
       </c>
       <c r="AW155">
         <v>211.5026666666667</v>
@@ -24774,7 +24774,7 @@
         <v>52</v>
       </c>
       <c r="AV156">
-        <v>42.716</v>
+        <v>42716</v>
       </c>
       <c r="AW156">
         <v>215.13</v>
@@ -24932,7 +24932,7 @@
         <v>54.6</v>
       </c>
       <c r="AV157">
-        <v>54.221</v>
+        <v>54221</v>
       </c>
       <c r="AW157">
         <v>208.8386666666667</v>
@@ -25090,7 +25090,7 @@
         <v>55.4</v>
       </c>
       <c r="AV158">
-        <v>71.755</v>
+        <v>71755</v>
       </c>
       <c r="AW158">
         <v>206.9433333333334</v>
@@ -25248,7 +25248,7 @@
         <v>55.5</v>
       </c>
       <c r="AV159">
-        <v>93.374</v>
+        <v>93374</v>
       </c>
       <c r="AW159">
         <v>208.3903333333334</v>
@@ -25406,7 +25406,7 @@
         <v>67.09999999999999</v>
       </c>
       <c r="AV160">
-        <v>95.724</v>
+        <v>95724</v>
       </c>
       <c r="AW160">
         <v>210.695</v>
@@ -25564,7 +25564,7 @@
         <v>55.5</v>
       </c>
       <c r="AV161">
-        <v>82.11</v>
+        <v>82110</v>
       </c>
       <c r="AW161">
         <v>212.6326666666666</v>
@@ -25722,7 +25722,7 @@
         <v>54.8</v>
       </c>
       <c r="AV162">
-        <v>66.932</v>
+        <v>66932</v>
       </c>
       <c r="AW162">
         <v>213.237</v>
@@ -25880,7 +25880,7 @@
         <v>55.5</v>
       </c>
       <c r="AV163">
-        <v>64.967</v>
+        <v>64967</v>
       </c>
       <c r="AW163">
         <v>213.1506666666667</v>
@@ -26038,7 +26038,7 @@
         <v>56</v>
       </c>
       <c r="AV164">
-        <v>70.03700000000001</v>
+        <v>70037</v>
       </c>
       <c r="AW164">
         <v>213.82</v>
@@ -26196,7 +26196,7 @@
         <v>56.9</v>
       </c>
       <c r="AV165">
-        <v>66.693</v>
+        <v>66693</v>
       </c>
       <c r="AW165">
         <v>215.764</v>
@@ -26354,7 +26354,7 @@
         <v>58.9</v>
       </c>
       <c r="AV166">
-        <v>61.132</v>
+        <v>61132</v>
       </c>
       <c r="AW166">
         <v>218.4156666666667</v>
@@ -26512,7 +26512,7 @@
         <v>59.9</v>
       </c>
       <c r="AV167">
-        <v>57.152</v>
+        <v>57152</v>
       </c>
       <c r="AW167">
         <v>221.2876666666667</v>
@@ -26670,7 +26670,7 @@
         <v>60.2</v>
       </c>
       <c r="AV168">
-        <v>54.998</v>
+        <v>54998</v>
       </c>
       <c r="AW168">
         <v>222.738</v>
@@ -26828,7 +26828,7 @@
         <v>61.1</v>
       </c>
       <c r="AV169">
-        <v>54.201</v>
+        <v>54201</v>
       </c>
       <c r="AW169">
         <v>223.7746666666667</v>
@@ -26986,7 +26986,7 @@
         <v>58.4</v>
       </c>
       <c r="AV170">
-        <v>49.963</v>
+        <v>49963</v>
       </c>
       <c r="AW170">
         <v>225.0873333333333</v>
@@ -27144,7 +27144,7 @@
         <v>58.1</v>
       </c>
       <c r="AV171">
-        <v>45.69</v>
+        <v>45690</v>
       </c>
       <c r="AW171">
         <v>225.4593333333333</v>
@@ -27302,7 +27302,7 @@
         <v>56.3</v>
       </c>
       <c r="AV172">
-        <v>42.696</v>
+        <v>42696</v>
       </c>
       <c r="AW172">
         <v>226.357</v>
@@ -27460,7 +27460,7 @@
         <v>59.4</v>
       </c>
       <c r="AV173">
-        <v>42.653</v>
+        <v>42653</v>
       </c>
       <c r="AW173">
         <v>227.9716666666667</v>
@@ -27618,7 +27618,7 @@
         <v>59.4</v>
       </c>
       <c r="AV174">
-        <v>39.763</v>
+        <v>39763</v>
       </c>
       <c r="AW174">
         <v>228.8366666666667</v>
@@ -27776,7 +27776,7 @@
         <v>60.1</v>
       </c>
       <c r="AV175">
-        <v>39.107</v>
+        <v>39107</v>
       </c>
       <c r="AW175">
         <v>228.4096666666667</v>
@@ -27934,7 +27934,7 @@
         <v>60</v>
       </c>
       <c r="AV176">
-        <v>38.505</v>
+        <v>38505</v>
       </c>
       <c r="AW176">
         <v>229.589</v>
@@ -28092,7 +28092,7 @@
         <v>59.4</v>
       </c>
       <c r="AV177">
-        <v>37.552</v>
+        <v>37552</v>
       </c>
       <c r="AW177">
         <v>230.4336666666667</v>
@@ -28250,7 +28250,7 @@
         <v>58.7</v>
       </c>
       <c r="AV178">
-        <v>37.237</v>
+        <v>37237</v>
       </c>
       <c r="AW178">
         <v>231.95</v>
@@ -28408,7 +28408,7 @@
         <v>58.5</v>
       </c>
       <c r="AV179">
-        <v>34.943</v>
+        <v>34943</v>
       </c>
       <c r="AW179">
         <v>233.1013333333334</v>
@@ -28566,7 +28566,7 @@
         <v>58.2</v>
       </c>
       <c r="AV180">
-        <v>33.201</v>
+        <v>33201</v>
       </c>
       <c r="AW180">
         <v>233.4943333333333</v>
@@ -28724,7 +28724,7 @@
         <v>57</v>
       </c>
       <c r="AV181">
-        <v>32.209</v>
+        <v>32209</v>
       </c>
       <c r="AW181">
         <v>232.431</v>
@@ -28882,7 +28882,7 @@
         <v>56</v>
       </c>
       <c r="AV182">
-        <v>32.153</v>
+        <v>32153</v>
       </c>
       <c r="AW182">
         <v>230.2366666666667</v>
@@ -29040,7 +29040,7 @@
         <v>56.4</v>
       </c>
       <c r="AV183">
-        <v>31.701</v>
+        <v>31701</v>
       </c>
       <c r="AW183">
         <v>231.9576666666667</v>
@@ -29198,7 +29198,7 @@
         <v>57.7</v>
       </c>
       <c r="AV184">
-        <v>31.839</v>
+        <v>31839</v>
       </c>
       <c r="AW184">
         <v>232.6933333333334</v>
@@ -29356,7 +29356,7 @@
         <v>58.7</v>
       </c>
       <c r="AV185">
-        <v>31.762</v>
+        <v>31762</v>
       </c>
       <c r="AW185">
         <v>232.2803333333334</v>
@@ -29514,7 +29514,7 @@
         <v>60.7</v>
       </c>
       <c r="AV186">
-        <v>31.925</v>
+        <v>31925</v>
       </c>
       <c r="AW186">
         <v>231.8976666666667</v>
@@ -29672,7 +29672,7 @@
         <v>62.4</v>
       </c>
       <c r="AV187">
-        <v>31.992</v>
+        <v>31992</v>
       </c>
       <c r="AW187">
         <v>233.6383333333334</v>
@@ -29830,7 +29830,7 @@
         <v>63</v>
       </c>
       <c r="AV188">
-        <v>31.816</v>
+        <v>31816</v>
       </c>
       <c r="AW188">
         <v>234.569</v>
@@ -29988,7 +29988,7 @@
         <v>61</v>
       </c>
       <c r="AV189">
-        <v>30.943</v>
+        <v>30943</v>
       </c>
       <c r="AW189">
         <v>236.0903333333333</v>
@@ -30146,7 +30146,7 @@
         <v>59.5</v>
       </c>
       <c r="AV190">
-        <v>30.386</v>
+        <v>30386</v>
       </c>
       <c r="AW190">
         <v>237.8366666666667</v>
@@ -30394,7 +30394,7 @@
         <v>58.1</v>
       </c>
       <c r="AV191">
-        <v>29.666</v>
+        <v>29666</v>
       </c>
       <c r="AW191">
         <v>237.876</v>
@@ -30648,7 +30648,7 @@
         <v>61.9</v>
       </c>
       <c r="AV192">
-        <v>29.811</v>
+        <v>29811</v>
       </c>
       <c r="AW192">
         <v>239.2166666666667</v>
@@ -30905,7 +30905,7 @@
         <v>60</v>
       </c>
       <c r="AV193">
-        <v>29.364</v>
+        <v>29364</v>
       </c>
       <c r="AW193">
         <v>241.274</v>
@@ -31189,7 +31189,7 @@
         <v>58.2</v>
       </c>
       <c r="AV194">
-        <v>28.799</v>
+        <v>28799</v>
       </c>
       <c r="AW194">
         <v>243.3273333333333</v>
@@ -31473,7 +31473,7 @@
         <v>57.8</v>
       </c>
       <c r="AV195">
-        <v>27.492</v>
+        <v>27492</v>
       </c>
       <c r="AW195">
         <v>244.6613333333334</v>
@@ -31757,7 +31757,7 @@
         <v>57.9</v>
       </c>
       <c r="AV196">
-        <v>26.989</v>
+        <v>26989</v>
       </c>
       <c r="AW196">
         <v>245.9633333333333</v>
@@ -32041,7 +32041,7 @@
         <v>79.5</v>
       </c>
       <c r="AV197">
-        <v>26.647</v>
+        <v>26647</v>
       </c>
       <c r="AW197">
         <v>246.6076666666667</v>
@@ -32325,7 +32325,7 @@
         <v>71.3</v>
       </c>
       <c r="AV198">
-        <v>27.557</v>
+        <v>27557</v>
       </c>
       <c r="AW198">
         <v>246.8373333333333</v>
@@ -32615,7 +32615,7 @@
         <v>61.1</v>
       </c>
       <c r="AV199">
-        <v>27.095</v>
+        <v>27095</v>
       </c>
       <c r="AW199">
         <v>248.8213333333333</v>
@@ -32905,7 +32905,7 @@
         <v>82</v>
       </c>
       <c r="AV200">
-        <v>27.197</v>
+        <v>27197</v>
       </c>
       <c r="AW200">
         <v>249.831</v>
@@ -33195,7 +33195,7 @@
         <v>81.09999999999999</v>
       </c>
       <c r="AV201">
-        <v>27.492</v>
+        <v>27492</v>
       </c>
       <c r="AW201">
         <v>251.367</v>
@@ -33485,7 +33485,7 @@
         <v>75.09999999999999</v>
       </c>
       <c r="AV202">
-        <v>43.021</v>
+        <v>43021</v>
       </c>
       <c r="AW202">
         <v>251.9656666666666</v>
@@ -33775,7 +33775,7 @@
         <v>1086.5</v>
       </c>
       <c r="AV203">
-        <v>1062.344</v>
+        <v>1062344</v>
       </c>
       <c r="AW203">
         <v>249.442</v>
@@ -34065,7 +34065,7 @@
         <v>1212.3</v>
       </c>
       <c r="AV204">
-        <v>734.317</v>
+        <v>734317</v>
       </c>
       <c r="AW204">
         <v>253.1416666666667</v>
